--- a/classfiers/chain/svm/chain-svm-linear-results.xlsx
+++ b/classfiers/chain/svm/chain-svm-linear-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9913419913419913</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9449275362318841</v>
+        <v>0.9695652173913044</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4468704512372634</v>
+        <v>0.9289855072463767</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6870451237263464</v>
+        <v>0.9521739130434783</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2133333333333333</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2777777777777778</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8027251439782294</v>
+        <v>0.9684133258046301</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/svm/chain-svm-linear-results.xlsx
+++ b/classfiers/chain/svm/chain-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9913419913419913</v>
+        <v>0.9957692307692309</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9695652173913044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9810591418631619</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9289855072463767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9521739130434783</v>
+        <v>0.9966666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.6342105263157894</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.3256410256410257</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.265569823434992</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9684133258046301</v>
+        <v>0.9946990078598119</v>
       </c>
     </row>
   </sheetData>
